--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/89.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/89.xlsx
@@ -479,13 +479,13 @@
         <v>-4.093418622806706</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.92725315671206</v>
+        <v>-11.13291411957571</v>
       </c>
       <c r="F2" t="n">
-        <v>5.726009596833719</v>
+        <v>5.641292885843816</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.58787459309481</v>
+        <v>-19.69839548232829</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.930162040495605</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.26237502141161</v>
+        <v>-11.45030844537582</v>
       </c>
       <c r="F3" t="n">
-        <v>5.66894021967622</v>
+        <v>5.598264736408098</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.03878045385786</v>
+        <v>-19.11413960570449</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-1.782759789927506</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.33476654609002</v>
+        <v>-11.52908990202929</v>
       </c>
       <c r="F4" t="n">
-        <v>5.491791944860425</v>
+        <v>5.430488687756178</v>
       </c>
       <c r="G4" t="n">
-        <v>-18.2283102295019</v>
+        <v>-18.31831195691494</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.7784784087040091</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.80348052342802</v>
+        <v>-11.99717808648833</v>
       </c>
       <c r="F5" t="n">
-        <v>5.755685868515893</v>
+        <v>5.710482111024397</v>
       </c>
       <c r="G5" t="n">
-        <v>-17.67458620076198</v>
+        <v>-17.77789580486676</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1058181731147567</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.18598175367485</v>
+        <v>-12.35104440351563</v>
       </c>
       <c r="F6" t="n">
-        <v>5.623423565745242</v>
+        <v>5.584653741290607</v>
       </c>
       <c r="G6" t="n">
-        <v>-17.28537725309375</v>
+        <v>-17.36404626258928</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.8509503670816505</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.06478073800281</v>
+        <v>-13.24728247533788</v>
       </c>
       <c r="F7" t="n">
-        <v>5.654468759350152</v>
+        <v>5.612765530775368</v>
       </c>
       <c r="G7" t="n">
-        <v>-16.47293675897042</v>
+        <v>-16.52779141601721</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>1.464842739724058</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.91043714477996</v>
+        <v>-14.06244614628608</v>
       </c>
       <c r="F8" t="n">
-        <v>5.912398094627984</v>
+        <v>5.860017275055857</v>
       </c>
       <c r="G8" t="n">
-        <v>-16.09440540229954</v>
+        <v>-16.14312924473521</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>1.94065788451198</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.46571587770356</v>
+        <v>-14.62302456265341</v>
       </c>
       <c r="F9" t="n">
-        <v>6.067159607000177</v>
+        <v>6.023349216465752</v>
       </c>
       <c r="G9" t="n">
-        <v>-16.05281462088269</v>
+        <v>-16.09874684039735</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>2.285773704362984</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.21906783483335</v>
+        <v>-15.36660339505624</v>
       </c>
       <c r="F10" t="n">
-        <v>6.422673519341632</v>
+        <v>6.377518651918805</v>
       </c>
       <c r="G10" t="n">
-        <v>-15.36610471635582</v>
+        <v>-15.39614766355301</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>2.496979046638839</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.53155359773908</v>
+        <v>-15.69931009036354</v>
       </c>
       <c r="F11" t="n">
-        <v>6.344586301663266</v>
+        <v>6.297275382212129</v>
       </c>
       <c r="G11" t="n">
-        <v>-14.71499167082695</v>
+        <v>-14.7514098829786</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>2.580510978578201</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.58970090997295</v>
+        <v>-16.74346017593743</v>
       </c>
       <c r="F12" t="n">
-        <v>6.750139199287594</v>
+        <v>6.727781770885192</v>
       </c>
       <c r="G12" t="n">
-        <v>-14.40629977724994</v>
+        <v>-14.46815060312328</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>2.54541619319133</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.14880773527335</v>
+        <v>-17.31408550141627</v>
       </c>
       <c r="F13" t="n">
-        <v>7.040448427045004</v>
+        <v>7.02455915472753</v>
       </c>
       <c r="G13" t="n">
-        <v>-13.88550320975869</v>
+        <v>-13.95927343437357</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>2.404651276028811</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.44155404201613</v>
+        <v>-18.62822610220868</v>
       </c>
       <c r="F14" t="n">
-        <v>7.11263950244187</v>
+        <v>7.098837836056569</v>
       </c>
       <c r="G14" t="n">
-        <v>-13.31701926928756</v>
+        <v>-13.3881787642355</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>2.182113251329612</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.59845205038917</v>
+        <v>-18.76737212664795</v>
       </c>
       <c r="F15" t="n">
-        <v>7.14992795781583</v>
+        <v>7.154166726769446</v>
       </c>
       <c r="G15" t="n">
-        <v>-12.73781373675727</v>
+        <v>-12.81360312120819</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.907212709573468</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.8109061973566</v>
+        <v>-19.98746290234151</v>
       </c>
       <c r="F16" t="n">
-        <v>7.178611761104021</v>
+        <v>7.194378808249821</v>
       </c>
       <c r="G16" t="n">
-        <v>-12.6819079432341</v>
+        <v>-12.74448723113061</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.613243744219365</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.84491648268851</v>
+        <v>-21.00905511023145</v>
       </c>
       <c r="F17" t="n">
-        <v>7.621237997800165</v>
+        <v>7.623090931402726</v>
       </c>
       <c r="G17" t="n">
-        <v>-12.29751955633665</v>
+        <v>-12.38825952378659</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.331295938880757</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.48768399349556</v>
+        <v>-21.65111371504279</v>
       </c>
       <c r="F18" t="n">
-        <v>7.882486968740633</v>
+        <v>7.903128355732747</v>
       </c>
       <c r="G18" t="n">
-        <v>-11.62764250245256</v>
+        <v>-11.70864356822361</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.089454950251903</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.18393235041978</v>
+        <v>-22.35872901293259</v>
       </c>
       <c r="F19" t="n">
-        <v>7.737200351676521</v>
+        <v>7.751378471590574</v>
       </c>
       <c r="G19" t="n">
-        <v>-11.0290471686881</v>
+        <v>-11.13759289914734</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9107521559129917</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.1144423603791</v>
+        <v>-23.27731962415038</v>
       </c>
       <c r="F20" t="n">
-        <v>7.717248314652641</v>
+        <v>7.725725852559871</v>
       </c>
       <c r="G20" t="n">
-        <v>-10.3267217762283</v>
+        <v>-10.4088668696062</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8051984745375281</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.90435431085968</v>
+        <v>-24.10588895192765</v>
       </c>
       <c r="F21" t="n">
-        <v>7.973310049307312</v>
+        <v>7.996239491513142</v>
       </c>
       <c r="G21" t="n">
-        <v>-9.765141113453245</v>
+        <v>-9.826204809221013</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7793147639929719</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.29900472317079</v>
+        <v>-24.49954200683791</v>
       </c>
       <c r="F22" t="n">
-        <v>7.884745689913147</v>
+        <v>7.897598888966266</v>
       </c>
       <c r="G22" t="n">
-        <v>-9.169303179561719</v>
+        <v>-9.236644360146606</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8308070892968116</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.96471634320427</v>
+        <v>-25.18038999213135</v>
       </c>
       <c r="F23" t="n">
-        <v>7.902717679155926</v>
+        <v>7.915673547353251</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.482270600581629</v>
+        <v>-8.548345528387985</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.9469640290934608</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.55361188734477</v>
+        <v>-25.76278315713886</v>
       </c>
       <c r="F24" t="n">
-        <v>8.269124298796868</v>
+        <v>8.302555327752831</v>
       </c>
       <c r="G24" t="n">
-        <v>-8.079215985466295</v>
+        <v>-8.139800558561104</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.119094170360712</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.79697687116607</v>
+        <v>-26.01215673039959</v>
       </c>
       <c r="F25" t="n">
-        <v>8.011590973075256</v>
+        <v>8.050619914893838</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.786985378010187</v>
+        <v>-7.871247411361466</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.333464483513285</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.96260175679654</v>
+        <v>-26.20095061957238</v>
       </c>
       <c r="F26" t="n">
-        <v>8.075632074024975</v>
+        <v>8.115834377491616</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.25701214462974</v>
+        <v>-7.342339981478006</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.573749887828776</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.85275066150383</v>
+        <v>-26.08597584508314</v>
       </c>
       <c r="F27" t="n">
-        <v>8.104667885807583</v>
+        <v>8.14223012556609</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.032332945053796</v>
+        <v>-7.129878410062483</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.830339029972743</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.79052827110861</v>
+        <v>-26.03109674300202</v>
       </c>
       <c r="F28" t="n">
-        <v>7.880883374488285</v>
+        <v>7.9166415707129</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.039373114942154</v>
+        <v>-7.132538029798085</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.08945412729636</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.95421711001978</v>
+        <v>-26.18903610983771</v>
       </c>
       <c r="F29" t="n">
-        <v>7.523272078200923</v>
+        <v>7.566446897842649</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.658465700933943</v>
+        <v>-6.75789832259326</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.33891421590537</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.96716320020338</v>
+        <v>-26.21542207989845</v>
       </c>
       <c r="F30" t="n">
-        <v>7.49235888778142</v>
+        <v>7.507289914752978</v>
       </c>
       <c r="G30" t="n">
-        <v>-6.881609752353675</v>
+        <v>-6.96584734067062</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.57116177039339</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.72805654136317</v>
+        <v>-25.96202974299311</v>
       </c>
       <c r="F31" t="n">
-        <v>7.661997648049635</v>
+        <v>7.685034648406538</v>
       </c>
       <c r="G31" t="n">
-        <v>-6.870174365291962</v>
+        <v>-6.945870858612405</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.775800342850658</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.63893483518617</v>
+        <v>-25.87782148871737</v>
       </c>
       <c r="F32" t="n">
-        <v>7.515420333172658</v>
+        <v>7.529701122230916</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.917402171626359</v>
+        <v>-6.977326728794136</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.945979172339883</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.41117067227721</v>
+        <v>-25.65464810325644</v>
       </c>
       <c r="F33" t="n">
-        <v>7.474015334016755</v>
+        <v>7.480400376984947</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.000368618157906</v>
+        <v>-7.050779167962666</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>3.077990363167539</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.20835511141011</v>
+        <v>-25.46004607392576</v>
       </c>
       <c r="F34" t="n">
-        <v>7.497316340744472</v>
+        <v>7.514994989575237</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.836141988491367</v>
+        <v>-6.866419608018171</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>3.166721420585799</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.92258288202519</v>
+        <v>-25.14943280065005</v>
       </c>
       <c r="F35" t="n">
-        <v>7.841297085886874</v>
+        <v>7.85599344052882</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.253262276362816</v>
+        <v>-7.275688150861354</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>3.213436555603252</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.51360279058716</v>
+        <v>-24.72370786069283</v>
       </c>
       <c r="F36" t="n">
-        <v>7.896068629816922</v>
+        <v>7.905274629747323</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.39198295720466</v>
+        <v>-7.418852938945225</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>3.220499572419261</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.01078799035242</v>
+        <v>-24.21612138975598</v>
       </c>
       <c r="F37" t="n">
-        <v>7.879778458936362</v>
+        <v>7.905030179403977</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.34949748753117</v>
+        <v>-7.36407650600831</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>3.188492285717645</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.42895217212774</v>
+        <v>-23.62225372563183</v>
       </c>
       <c r="F38" t="n">
-        <v>7.645653698093539</v>
+        <v>7.659714481842786</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.294579273395114</v>
+        <v>-7.344046244874559</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>3.122939635906022</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.9088791776528</v>
+        <v>-23.09840641785562</v>
       </c>
       <c r="F39" t="n">
-        <v>7.578772084154142</v>
+        <v>7.574508870166192</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.48806660916014</v>
+        <v>-7.535744204126295</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>3.026675785049824</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.5971120987565</v>
+        <v>-22.76635973847536</v>
       </c>
       <c r="F40" t="n">
-        <v>7.45331038993537</v>
+        <v>7.428044002447154</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.472328896055541</v>
+        <v>-7.50598970833425</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>2.899893861606045</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.07618841708671</v>
+        <v>-22.2531313536141</v>
       </c>
       <c r="F41" t="n">
-        <v>7.537557756266049</v>
+        <v>7.519404873769194</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.870714509612972</v>
+        <v>-7.899799211464249</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>2.746098570673551</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.62592066265758</v>
+        <v>-21.79795503629058</v>
       </c>
       <c r="F42" t="n">
-        <v>7.594372905066468</v>
+        <v>7.556165316401527</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.929490150167024</v>
+        <v>-7.971041819528934</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.564945436752813</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.31501893797672</v>
+        <v>-21.49628375657446</v>
       </c>
       <c r="F43" t="n">
-        <v>7.450098312423807</v>
+        <v>7.42120428184034</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.131582138017819</v>
+        <v>-8.166861211569477</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>2.35588526744246</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.41632658470729</v>
+        <v>-20.59556735446212</v>
       </c>
       <c r="F44" t="n">
-        <v>7.709543239830383</v>
+        <v>7.68067365428125</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.132173707848716</v>
+        <v>-8.166406533930855</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>2.122088819812706</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.54463621636382</v>
+        <v>-19.71932043171869</v>
       </c>
       <c r="F45" t="n">
-        <v>7.848630596187246</v>
+        <v>7.801231674612506</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.267794758336937</v>
+        <v>-8.291731335957353</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.864942614942328</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.12242647234391</v>
+        <v>-19.30893719530984</v>
       </c>
       <c r="F46" t="n">
-        <v>7.640446905780274</v>
+        <v>7.608731918234596</v>
       </c>
       <c r="G46" t="n">
-        <v>-8.186744802497222</v>
+        <v>-8.226296868050563</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.58843078224272</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.92932536812137</v>
+        <v>-19.09521914912953</v>
       </c>
       <c r="F47" t="n">
-        <v>7.897833561295879</v>
+        <v>7.870567569999094</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.590146537100107</v>
+        <v>-8.623694902220878</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.298899773180725</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.14188236610858</v>
+        <v>-18.31974932493381</v>
       </c>
       <c r="F48" t="n">
-        <v>7.864143414975968</v>
+        <v>7.836852978644848</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.555776818825695</v>
+        <v>-8.584876187697573</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.001641063039505</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.5935606899566</v>
+        <v>-17.76529194516386</v>
       </c>
       <c r="F49" t="n">
-        <v>7.862138922160533</v>
+        <v>7.817917855049287</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.80764867459542</v>
+        <v>-8.855516940829384</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7029757852066832</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.14990287281154</v>
+        <v>-17.30814046906611</v>
       </c>
       <c r="F50" t="n">
-        <v>7.736564780783822</v>
+        <v>7.688906741845135</v>
       </c>
       <c r="G50" t="n">
-        <v>-9.47178114541088</v>
+        <v>-9.490080698113744</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4080636224144764</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.60847958534877</v>
+        <v>-16.75073990716227</v>
       </c>
       <c r="F51" t="n">
-        <v>7.813639974040736</v>
+        <v>7.758389307437731</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.634193953529795</v>
+        <v>-9.680360845374073</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1208248872699166</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.92635556926307</v>
+        <v>-16.07709831799065</v>
       </c>
       <c r="F52" t="n">
-        <v>7.742294696831847</v>
+        <v>7.66910626403413</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.873373947473008</v>
+        <v>-9.899178125716585</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1563248884074496</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.7372634506714</v>
+        <v>-15.86089176731508</v>
       </c>
       <c r="F53" t="n">
-        <v>7.804145522705188</v>
+        <v>7.742338697893649</v>
       </c>
       <c r="G53" t="n">
-        <v>-10.32762135349181</v>
+        <v>-10.35775230281261</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.4232740578042469</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.33383727103418</v>
+        <v>-15.44615731479468</v>
       </c>
       <c r="F54" t="n">
-        <v>7.764559234103777</v>
+        <v>7.683597280387666</v>
       </c>
       <c r="G54" t="n">
-        <v>-10.56147721895695</v>
+        <v>-10.59079170413097</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.6813451095438373</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.76472753768408</v>
+        <v>-14.8873878309681</v>
       </c>
       <c r="F55" t="n">
-        <v>7.823735773220916</v>
+        <v>7.7649992447218</v>
       </c>
       <c r="G55" t="n">
-        <v>-11.09735148362576</v>
+        <v>-11.12697886523927</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.933350688968424</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.61706486328264</v>
+        <v>-14.7173335051162</v>
       </c>
       <c r="F56" t="n">
-        <v>7.570054984910433</v>
+        <v>7.500078629624279</v>
       </c>
       <c r="G56" t="n">
-        <v>-11.49358593416176</v>
+        <v>-11.51431532327747</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.182375973907754</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.47192002741767</v>
+        <v>-14.57442294538941</v>
       </c>
       <c r="F57" t="n">
-        <v>7.61056529580969</v>
+        <v>7.535680377629154</v>
       </c>
       <c r="G57" t="n">
-        <v>-12.16551148192308</v>
+        <v>-12.2066915867631</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.431010589330318</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.99867882972091</v>
+        <v>-14.09199530378971</v>
       </c>
       <c r="F58" t="n">
-        <v>7.311333630520161</v>
+        <v>7.261895993081916</v>
       </c>
       <c r="G58" t="n">
-        <v>-12.37332360780816</v>
+        <v>-12.40401190391179</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.683222051475609</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.89104245453891</v>
+        <v>-13.98890570499394</v>
       </c>
       <c r="F59" t="n">
-        <v>7.547707334521764</v>
+        <v>7.474866021211598</v>
       </c>
       <c r="G59" t="n">
-        <v>-12.30832426151253</v>
+        <v>-12.321495246012</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.940147052463796</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.24875406640482</v>
+        <v>-13.3251985777759</v>
       </c>
       <c r="F60" t="n">
-        <v>7.437396672583563</v>
+        <v>7.377716565759131</v>
       </c>
       <c r="G60" t="n">
-        <v>-12.47907282633953</v>
+        <v>-12.49359806574114</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.202972911856883</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.92485736147171</v>
+        <v>-13.00498818402044</v>
       </c>
       <c r="F61" t="n">
-        <v>7.244119564113814</v>
+        <v>7.203623920235157</v>
       </c>
       <c r="G61" t="n">
-        <v>-12.57262397273795</v>
+        <v>-12.59233644842535</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.473311057306627</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.88312479885572</v>
+        <v>-12.96653125600529</v>
       </c>
       <c r="F62" t="n">
-        <v>7.413802325443831</v>
+        <v>7.367376316235607</v>
       </c>
       <c r="G62" t="n">
-        <v>-12.87121517812792</v>
+        <v>-12.88406837718104</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-2.746362000583078</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.89084454069858</v>
+        <v>-12.98910380070984</v>
       </c>
       <c r="F63" t="n">
-        <v>7.451643238593753</v>
+        <v>7.388912391484367</v>
       </c>
       <c r="G63" t="n">
-        <v>-12.84410074604401</v>
+        <v>-12.85765796208596</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-3.020602711065394</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.22173741445825</v>
+        <v>-13.3054567680473</v>
       </c>
       <c r="F64" t="n">
-        <v>7.260439069035576</v>
+        <v>7.198964696690988</v>
       </c>
       <c r="G64" t="n">
-        <v>-13.08901554504211</v>
+        <v>-13.10419102235701</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-3.293209006342266</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.13174057605208</v>
+        <v>-13.20267028767728</v>
       </c>
       <c r="F65" t="n">
-        <v>7.429862713001646</v>
+        <v>7.369312362954905</v>
       </c>
       <c r="G65" t="n">
-        <v>-13.15756431032312</v>
+        <v>-13.17603497826633</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-3.555034737483399</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.05702677311189</v>
+        <v>-13.12787337162035</v>
       </c>
       <c r="F66" t="n">
-        <v>7.224235973186071</v>
+        <v>7.149913290795229</v>
       </c>
       <c r="G66" t="n">
-        <v>-13.44600593745737</v>
+        <v>-13.45612618167189</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.803789037246342</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.39257887041573</v>
+        <v>-13.48609090475921</v>
       </c>
       <c r="F67" t="n">
-        <v>7.158728170176277</v>
+        <v>7.106826473277108</v>
       </c>
       <c r="G67" t="n">
-        <v>-13.42994066089269</v>
+        <v>-13.43901954664455</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.033221633516853</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.25714360218845</v>
+        <v>-13.34260344222212</v>
       </c>
       <c r="F68" t="n">
-        <v>7.28952865989372</v>
+        <v>7.230943690607478</v>
       </c>
       <c r="G68" t="n">
-        <v>-13.38170571914371</v>
+        <v>-13.37777495762271</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.233057070613826</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.73846632823622</v>
+        <v>-13.8436386439573</v>
       </c>
       <c r="F69" t="n">
-        <v>7.357784084762719</v>
+        <v>7.308258445200871</v>
       </c>
       <c r="G69" t="n">
-        <v>-13.00343347983676</v>
+        <v>-12.98462058141287</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.399216455344361</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.65997821199477</v>
+        <v>-13.76340515226436</v>
       </c>
       <c r="F70" t="n">
-        <v>7.468549424339544</v>
+        <v>7.424734144798252</v>
       </c>
       <c r="G70" t="n">
-        <v>-13.04410023895576</v>
+        <v>-13.02807896345288</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.522907587664625</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.96444600363877</v>
+        <v>-14.05843227164834</v>
       </c>
       <c r="F71" t="n">
-        <v>7.321072532199055</v>
+        <v>7.273390048226034</v>
       </c>
       <c r="G71" t="n">
-        <v>-12.8841026002291</v>
+        <v>-12.83367738340374</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.594709200532562</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.01316984607444</v>
+        <v>-14.11312070246165</v>
       </c>
       <c r="F72" t="n">
-        <v>7.410135570293645</v>
+        <v>7.358077425174734</v>
       </c>
       <c r="G72" t="n">
-        <v>-13.14244750109062</v>
+        <v>-13.09651039256909</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.611346425482955</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.40785937044049</v>
+        <v>-14.50940404306631</v>
       </c>
       <c r="F73" t="n">
-        <v>7.540584051516669</v>
+        <v>7.489718824073286</v>
       </c>
       <c r="G73" t="n">
-        <v>-13.08508478352111</v>
+        <v>-13.05151686237287</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.566174410479068</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.63913872928676</v>
+        <v>-14.71181381636345</v>
       </c>
       <c r="F74" t="n">
-        <v>7.38248823646124</v>
+        <v>7.336243120507092</v>
       </c>
       <c r="G74" t="n">
-        <v>-13.00056363280588</v>
+        <v>-12.96773884070142</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.456614469831246</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.17360495997791</v>
+        <v>-15.27455317376597</v>
       </c>
       <c r="F75" t="n">
-        <v>7.494143375287845</v>
+        <v>7.460423894926731</v>
       </c>
       <c r="G75" t="n">
-        <v>-13.0278247350958</v>
+        <v>-12.99584574117931</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.28496269217111</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.37216708487079</v>
+        <v>-15.44791735726677</v>
       </c>
       <c r="F76" t="n">
-        <v>7.604898936850936</v>
+        <v>7.554400384922571</v>
       </c>
       <c r="G76" t="n">
-        <v>-13.17125352955049</v>
+        <v>-13.14586980589746</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.05201536328523</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.90441859545122</v>
+        <v>-15.9894482028806</v>
       </c>
       <c r="F77" t="n">
-        <v>7.586980726683692</v>
+        <v>7.546191742393021</v>
       </c>
       <c r="G77" t="n">
-        <v>-12.90213325755429</v>
+        <v>-12.8761237410223</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.764007421092742</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.31290000818883</v>
+        <v>-16.38816626890499</v>
       </c>
       <c r="F78" t="n">
-        <v>7.668407136052161</v>
+        <v>7.618153034467142</v>
       </c>
       <c r="G78" t="n">
-        <v>-12.81322666767944</v>
+        <v>-12.76127119170473</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.428691285929785</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.29045457766282</v>
+        <v>-16.35791798341938</v>
       </c>
       <c r="F79" t="n">
-        <v>7.768137987130359</v>
+        <v>7.715517606221753</v>
       </c>
       <c r="G79" t="n">
-        <v>-12.54144677594764</v>
+        <v>-12.48883617305276</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.052071825847812</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.06500526856756</v>
+        <v>-17.14504808899269</v>
       </c>
       <c r="F80" t="n">
-        <v>7.794044834518141</v>
+        <v>7.744631642114231</v>
       </c>
       <c r="G80" t="n">
-        <v>-12.39398455082775</v>
+        <v>-12.3168702455159</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.643100173692629</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.94845858743282</v>
+        <v>-18.02556800373781</v>
       </c>
       <c r="F81" t="n">
-        <v>7.861742912604313</v>
+        <v>7.832022639860337</v>
       </c>
       <c r="G81" t="n">
-        <v>-11.94718310226726</v>
+        <v>-11.87942146709181</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.208467943172864</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.67185559948903</v>
+        <v>-18.76564141821705</v>
       </c>
       <c r="F82" t="n">
-        <v>7.899070480033208</v>
+        <v>7.884476794535467</v>
       </c>
       <c r="G82" t="n">
-        <v>-11.90805149130447</v>
+        <v>-11.8128380825713</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-1.752263959756779</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.37686994572563</v>
+        <v>-19.45680031899282</v>
       </c>
       <c r="F83" t="n">
-        <v>8.051030591470658</v>
+        <v>8.019354715979917</v>
       </c>
       <c r="G83" t="n">
-        <v>-11.99055837119053</v>
+        <v>-11.89652321311228</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.281872413365915</v>
       </c>
       <c r="E84" t="n">
-        <v>-20.39796347491515</v>
+        <v>-20.45197233377396</v>
       </c>
       <c r="F84" t="n">
-        <v>7.792592799478667</v>
+        <v>7.760912034981058</v>
       </c>
       <c r="G84" t="n">
-        <v>-11.81369854777988</v>
+        <v>-11.69500812807178</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.8023169145476631</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.42130105825659</v>
+        <v>-21.4701960159326</v>
       </c>
       <c r="F85" t="n">
-        <v>8.24961227239101</v>
+        <v>8.216699478162939</v>
       </c>
       <c r="G85" t="n">
-        <v>-11.96428484828773</v>
+        <v>-11.84731046998992</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3182807424751303</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.43344770487965</v>
+        <v>-22.49670656473067</v>
       </c>
       <c r="F86" t="n">
-        <v>8.219588881221284</v>
+        <v>8.194337160753669</v>
       </c>
       <c r="G86" t="n">
-        <v>-11.53337756105157</v>
+        <v>-11.42790212690475</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1607773461355498</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.29760411364121</v>
+        <v>-23.36190433195487</v>
       </c>
       <c r="F87" t="n">
-        <v>8.319368622368152</v>
+        <v>8.27022921434879</v>
       </c>
       <c r="G87" t="n">
-        <v>-11.39002699070676</v>
+        <v>-11.28088969041662</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.6269025892352398</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.54419819556031</v>
+        <v>-24.5839507103952</v>
       </c>
       <c r="F88" t="n">
-        <v>8.347495078873514</v>
+        <v>8.302301099395752</v>
       </c>
       <c r="G88" t="n">
-        <v>-11.51377753252211</v>
+        <v>-11.40236195503199</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.070207187357575</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.92511285214104</v>
+        <v>-25.96731964842312</v>
       </c>
       <c r="F89" t="n">
-        <v>8.277504056566759</v>
+        <v>8.24758333454124</v>
       </c>
       <c r="G89" t="n">
-        <v>-11.01091873122558</v>
+        <v>-10.88887445280678</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.477979682596755</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.41750664330116</v>
+        <v>-27.43156987155384</v>
       </c>
       <c r="F90" t="n">
-        <v>8.322536698817913</v>
+        <v>8.292395971483382</v>
       </c>
       <c r="G90" t="n">
-        <v>-11.15992099350854</v>
+        <v>-11.01973361060662</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.838676110155282</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.14227248634232</v>
+        <v>-29.15787575175808</v>
       </c>
       <c r="F91" t="n">
-        <v>8.453747865112176</v>
+        <v>8.434270061754388</v>
       </c>
       <c r="G91" t="n">
-        <v>-10.83163884941581</v>
+        <v>-10.6884789503388</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.139079873744234</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.00781728211629</v>
+        <v>-31.00977044035962</v>
       </c>
       <c r="F92" t="n">
-        <v>8.478481350851899</v>
+        <v>8.461428494900099</v>
       </c>
       <c r="G92" t="n">
-        <v>-10.80035898348128</v>
+        <v>-10.65460791076482</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.365656933055638</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.58120725004059</v>
+        <v>-32.55460371917427</v>
       </c>
       <c r="F93" t="n">
-        <v>8.361194076114609</v>
+        <v>8.329801763022148</v>
       </c>
       <c r="G93" t="n">
-        <v>-10.96615987335897</v>
+        <v>-10.83086638633083</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>2.506936072394746</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.62152181878961</v>
+        <v>-34.5735704394389</v>
       </c>
       <c r="F94" t="n">
-        <v>8.2802614564397</v>
+        <v>8.25146520599357</v>
       </c>
       <c r="G94" t="n">
-        <v>-10.26358514154896</v>
+        <v>-10.13209530186328</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>2.553517068628068</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.8982589816089</v>
+        <v>-36.83674305270594</v>
       </c>
       <c r="F95" t="n">
-        <v>8.083850494568258</v>
+        <v>8.051035480477525</v>
       </c>
       <c r="G95" t="n">
-        <v>-9.790764398442747</v>
+        <v>-9.660193692048049</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>2.491252760951843</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.7368971280908</v>
+        <v>-38.663950701133</v>
       </c>
       <c r="F96" t="n">
-        <v>7.830453268656057</v>
+        <v>7.82166772331621</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.277868466048433</v>
+        <v>-9.145645275332718</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>2.324395780900264</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.36733927071079</v>
+        <v>-41.28755067864273</v>
       </c>
       <c r="F97" t="n">
-        <v>7.571360349743899</v>
+        <v>7.563655274921641</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.861745535577834</v>
+        <v>-8.729742350171129</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>2.033922461211204</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.299973463216</v>
+        <v>-43.18514291442933</v>
       </c>
       <c r="F98" t="n">
-        <v>7.286512142656833</v>
+        <v>7.282723162334975</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.334959934674615</v>
+        <v>-8.182457143474936</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>1.647974325769932</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.88716989559469</v>
+        <v>-45.77219512110545</v>
       </c>
       <c r="F99" t="n">
-        <v>6.940693130932472</v>
+        <v>6.953859226425073</v>
       </c>
       <c r="G99" t="n">
-        <v>-8.077382607891201</v>
+        <v>-7.910315465234984</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.13039932462299</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.18393976405115</v>
+        <v>-48.06275595084094</v>
       </c>
       <c r="F100" t="n">
-        <v>6.343945841763699</v>
+        <v>6.34782771321603</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.672123050678887</v>
+        <v>-7.517889551048321</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.5569786115978423</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.28809620672006</v>
+        <v>-50.15840552156141</v>
       </c>
       <c r="F101" t="n">
-        <v>6.028952018335237</v>
+        <v>6.031391632761827</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.415499080234522</v>
+        <v>-7.247248797916511</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1720593930123858</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.2835003583896</v>
+        <v>-52.17216544951278</v>
       </c>
       <c r="F102" t="n">
-        <v>5.619991482924668</v>
+        <v>5.611098379433749</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.246701229147416</v>
+        <v>-7.054509480202122</v>
       </c>
     </row>
   </sheetData>
